--- a/medicine/Mort/Décès_en_1904/Décès_en_1904.xlsx
+++ b/medicine/Mort/Décès_en_1904/Décès_en_1904.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2 janvier :
 Jacques Orteig, alpiniste français  (° 9 février 1834).
@@ -551,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +583,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>7 février : Fabien Launay, peintre, dessinateur, graveur et caricaturiste français (° 23 mars 1877).
 13 février : Octave Callandreau, astronome français (° 18 septembre 1852).
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,7 +620,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>4 mars :
 Charles Poisot, pianiste, compositeur et musicographe français (° 7 juillet 1822).
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,7 +659,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2 avril : Artishia Gilbert, médecin afro-américaine (° 2 juin 1868).
 5 avril : Ernest de Leiningen, prince allemand au service de la Marine du Royaume-Uni (° 9 novembre 1830).
@@ -659,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,7 +697,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1er mai : Antonín Dvořák, compositeur tchèque (° 8 septembre 1841).
 6 mai : Franz von Lenbach, peintre allemand  (° 13 décembre 1836).
@@ -692,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,7 +732,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>18 juin : Paul Dangla, coureur cycliste français (° 16 janvier 1878).
 25 juin : Anthony Frederick Augustus Sandys, peintre, illustrateur et dessinateur britannique (° 1er mai 1829).</t>
@@ -723,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -741,7 +765,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1er juillet : George Frederic Watts, peintre et sculpteur britannique (° 23 février 1857).
 3 juillet : Theodor Herzl, écrivain juif et fondateur du sionisme politique (° 2 mai 1860).
@@ -757,7 +783,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -775,7 +801,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>3 août : Hugo Abensberg und Traun, diplomate et noble austro-hongrois (° 20 septembre 1828)
 7 août : Heinrich Hasselhorst, peintre et dessinateur allemand (° 4 avril 1825).
@@ -793,7 +821,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -811,7 +839,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>4 septembre : Martin Johnson Heade, peintre américain (° 11 août 1819).
 18 septembre : Herbert von Bismarck, homme politique allemand, fils d'Òtto (° 28 décembre 1849).
@@ -825,7 +855,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -843,7 +873,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1er octobre : Samuel Rousseau, compositeur, organiste et musicographe français (° 11 juin 1853).
 2 octobre : Jan Monchablon, peintre français (° 6 septembre 1854).
@@ -860,7 +892,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -878,7 +910,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>4 novembre :
 Valentine Cameron Prinsep, peintre anglais (° 14 février 1838).
@@ -895,7 +929,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1904</t>
+          <t>Décès_en_1904</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -913,7 +947,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1er décembre : Hector Giacomelli, aquarelliste, graveur et illustrateur français (° 1er avril 1822).
 11 décembre :
